--- a/medicine/Soins infirmiers et profession infirmière/Secours_en_montagne/Secours_en_montagne.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Secours_en_montagne/Secours_en_montagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les secours en montagne sont l’ensemble des moyens mis en œuvre pour porter secours aux malades et victimes d’accidents ou de malaises en montagne.
 La montagne est un milieu difficilement prévisible et dangereux :
@@ -520,9 +532,11 @@
           <t>Les secours en montagne en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, le dispositif de secours en montagne est organisé dans le cadre de plans départementaux spécifiques d’organisation de la réponse de sécurité civile (ORSEC) arrêtés par le préfet et mis en œuvre sous son autorité[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le dispositif de secours en montagne est organisé dans le cadre de plans départementaux spécifiques d’organisation de la réponse de sécurité civile (ORSEC) arrêtés par le préfet et mis en œuvre sous son autorité.
 Les secours en montagne sont assurés essentiellement par trois organismes publics :
 les gendarmes des pelotons de gendarmerie de haute montagne ;
 les policiers des compagnies républicaines de sécurité en montagne (CRS) ;
@@ -532,12 +546,6 @@
 Lorsque l’évacuation est héliportée, la victime peut être déposée directement sur l’héliport de l’hôpital, ou bien sur une zone de dépose pour être prise en charge par une ambulance, en général privée.
 Ainsi dans les Alpes françaises, sept hélicoptères, quatre de la gendarmerie et trois de la sécurité civile, en alerte 24 heures sur 24, alternent selon le rythme de huit jours de garde et huit jours de repos. Tous les équipages utilisent des hélicoptères EC145 et des treuils électriques pouvant hisser des brancards à la vitesse de 0,50 mètre à la seconde.
 Sur les domaines skiables, les secours sont sous la responsabilité des maires et sont assurés par les pisteurs-secouristes, alpins ou nordiques.
-Histoire du secours en montagne en France
-Déjà au XVe siècle, bergers et chasseurs des espaces montagnards, surnommés « marrons » en raison du long bâton dont ils sont munis et qui les aide à sonder la neige, jouent un rôle de guide et apportent leur aide aux voyageurs perdus[2].
-Des sociétés de secours en montagne se créent au tournant du XXe siècle, la première à Annemasse en 1897 ou plus tard la Société dauphinoise de secours en montagne[3] en 1910 et la Société chamoniarde de secours en montagne (SCSM). Chaque dimanche, ces volontaires conduisent un tour de garde dans les montagnes proches[2].
-En 1952[4], André Georges fédère les activités de secours en montagne dans les Alpes, notamment le Briançonnais, et les moyens mis en œuvre. Il perfectionne également les techniques de descente des blessés dans des brancards nacelles par exemple.
-À la suite d'un fort émoi du public, l'accident de Jean Vincendon et François Henry en 1956 entraîne la création du peloton spécialisé de haute montagne en janvier 1958, qui deviendra le PGHM de Chamonix, ainsi que des CRS Montagne. La circulaire de 1958 précise que cette assistance désormais professionnalisée, prise en charge par l'État, est gratuite[2]. Félix Germain, qui fut secrétaire général de la commission de la FFM pour le secours en montagne, et à qui l'on doit la création en 1949 de l'insigne ou médaille du Secours en montagne[5], s'implique fortement dans la mise au point de la nouvelle organisation.
-Ainsi les PGHM/PGM et les CRS Montagne (Alpes et Pyrénées) travaillent en alternance sur certains départements. D'autres départements sont exclusivement sous le ressort d'un PGM ou PGHM. De plus les sapeurs-pompiers (GMSP) participent dans certains départements (en alternance ou en mixité) aux opérations de secours en montagne.
 </t>
         </is>
       </c>
@@ -563,15 +571,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Les secours en montagne en Italie</t>
+          <t>Les secours en montagne en France</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vallée d'Aoste
-Le Secours alpin valdôtain est le service public chargé des secours en montagne et de la protection civile pour la région autonome Vallée d'Aoste, selon la loi régionale no 5 du 17 avril 2007.
-Les missions de sauvetage s'activent surtout par hélicoptère à partir de l'aéroport Conrad Gex à Saint-Christophe.
-Les interventions concernent toutes les activités liés au milieu alpin, non seulement sportives, mais aussi pour les travailleurs, les résidents et les touristes.
+          <t>Histoire du secours en montagne en France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Déjà au XVe siècle, bergers et chasseurs des espaces montagnards, surnommés « marrons » en raison du long bâton dont ils sont munis et qui les aide à sonder la neige, jouent un rôle de guide et apportent leur aide aux voyageurs perdus.
+Des sociétés de secours en montagne se créent au tournant du XXe siècle, la première à Annemasse en 1897 ou plus tard la Société dauphinoise de secours en montagne en 1910 et la Société chamoniarde de secours en montagne (SCSM). Chaque dimanche, ces volontaires conduisent un tour de garde dans les montagnes proches.
+En 1952, André Georges fédère les activités de secours en montagne dans les Alpes, notamment le Briançonnais, et les moyens mis en œuvre. Il perfectionne également les techniques de descente des blessés dans des brancards nacelles par exemple.
+À la suite d'un fort émoi du public, l'accident de Jean Vincendon et François Henry en 1956 entraîne la création du peloton spécialisé de haute montagne en janvier 1958, qui deviendra le PGHM de Chamonix, ainsi que des CRS Montagne. La circulaire de 1958 précise que cette assistance désormais professionnalisée, prise en charge par l'État, est gratuite. Félix Germain, qui fut secrétaire général de la commission de la FFM pour le secours en montagne, et à qui l'on doit la création en 1949 de l'insigne ou médaille du Secours en montagne, s'implique fortement dans la mise au point de la nouvelle organisation.
+Ainsi les PGHM/PGM et les CRS Montagne (Alpes et Pyrénées) travaillent en alternance sur certains départements. D'autres départements sont exclusivement sous le ressort d'un PGM ou PGHM. De plus les sapeurs-pompiers (GMSP) participent dans certains départements (en alternance ou en mixité) aux opérations de secours en montagne.
 </t>
         </is>
       </c>
@@ -597,10 +612,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Les secours en montagne en Italie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vallée d'Aoste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Secours alpin valdôtain est le service public chargé des secours en montagne et de la protection civile pour la région autonome Vallée d'Aoste, selon la loi régionale no 5 du 17 avril 2007.
+Les missions de sauvetage s'activent surtout par hélicoptère à partir de l'aéroport Conrad Gex à Saint-Christophe.
+Les interventions concernent toutes les activités liés au milieu alpin, non seulement sportives, mais aussi pour les travailleurs, les résidents et les touristes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Secours_en_montagne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Secours_en_montagne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Les secours en montagne en Suisse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En Suisse, hors Valais, les secours en montagne sont effectués par la Rega (acronyme formé des mots allemand et français  Rettungsflugwacht et  garde aérienne). La Rega est la Garde aérienne suisse de sauvetage, une fondation privée à but non lucratif : elle ne reçoit aucune subvention de l’État. Les secours de la Rega sont déclenchés en appelant le « 1414 » par téléphone.
 La Rega fut créée en 1952, sous le nom de Garde aérienne suisse de sauvetage (GASS), par des membres de la Société suisse de sauvetage (SSS). Depuis 1965, elle est « organisation d’aide associée à la Croix-Rouge suisse » (CRS), dont elle est membre corporatif depuis 1981.
@@ -609,33 +665,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Secours_en_montagne</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Secours_en_montagne</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Radio</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les secours peuvent utiliser le canal européen des secours en montagne désigné Canal E, dont la  fréquence radioélectrique est 161,300 MHz[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les secours peuvent utiliser le canal européen des secours en montagne désigné Canal E, dont la  fréquence radioélectrique est 161,300 MHz.
 </t>
         </is>
       </c>
